--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1447730.786337185</v>
+        <v>1445478.706625978</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283199</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>84.22290965228913</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>318.4070179429963</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>114.265617377101</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>57.41387742856743</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>89.61172450801193</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>256.421701049336</v>
       </c>
       <c r="G8" t="n">
-        <v>225.7402727320836</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>51.06561173382029</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>51.06561173382075</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>199.7188997645206</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>97.98413062224149</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>207.3024276001667</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.2435806730857</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>45.16086499484859</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>60.64713141731143</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>256.0341711178253</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>163.3542162903876</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067215</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.901740067215</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067215</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080126</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.46409084602</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>845.4915543310558</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>845.4915543310558</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>695.37491491872</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>547.4618213363269</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>400.5718738384165</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.4915543310558</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.569348694472</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.303650087722</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="E8" t="n">
-        <v>747.5153974894774</v>
+        <v>378.5528805490677</v>
       </c>
       <c r="F8" t="n">
-        <v>336.5294926998699</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4951,28 +4951,28 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,13 +4984,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1875.713122094735</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1875.713122094735</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1875.713122094735</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
         <v>1875.713122094735</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>119.2902967703794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1775.724818122104</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>782.841029837709</v>
       </c>
     </row>
     <row r="14">
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>274.8772357154537</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>274.8772357154537</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2902967703794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.890000432079</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561021</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6251,10 +6251,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1052.829365488567</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>883.8931825606599</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>733.7765431483241</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>585.863449565931</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>438.9735020680206</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>271.7774027829005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V34" t="n">
-        <v>1972.677130397314</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W34" t="n">
-        <v>1683.259960360354</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1455.270409462336</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>1234.477830318806</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7591,25 +7591,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
         <v>753.3092412490405</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.8544504695175</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>86.46557462472359</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393463</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>67.54000767002735</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.83521572366129</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.58839950885155</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>173.4237883572462</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>120.3791545843332</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>30.48882721876566</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>921458.6918815278</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815278</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
@@ -26326,31 +26326,31 @@
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062536</v>
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820625</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26448,7 +26448,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26522,46 +26522,46 @@
         <v>-1016931.366972015</v>
       </c>
       <c r="C6" t="n">
-        <v>311813.3787555768</v>
+        <v>311813.3787555773</v>
       </c>
       <c r="D6" t="n">
         <v>311813.3787555775</v>
       </c>
       <c r="E6" t="n">
-        <v>63714.88109813651</v>
+        <v>63680.14317270067</v>
       </c>
       <c r="F6" t="n">
-        <v>389127.3429054916</v>
+        <v>389092.6049800557</v>
       </c>
       <c r="G6" t="n">
-        <v>389127.3429054916</v>
+        <v>389092.6049800561</v>
       </c>
       <c r="H6" t="n">
-        <v>389127.3429054914</v>
+        <v>389092.6049800559</v>
       </c>
       <c r="I6" t="n">
-        <v>389127.3429054915</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="J6" t="n">
-        <v>171596.1405082141</v>
+        <v>171561.4025827784</v>
       </c>
       <c r="K6" t="n">
-        <v>389127.3429054915</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="L6" t="n">
-        <v>389127.3429054916</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="M6" t="n">
-        <v>304072.3149699797</v>
+        <v>304037.5770445441</v>
       </c>
       <c r="N6" t="n">
-        <v>389127.3429054916</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="O6" t="n">
-        <v>389127.3429054916</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="P6" t="n">
-        <v>389127.3429054915</v>
+        <v>389092.6049800557</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>285.5081910261799</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>67.83092071305725</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,13 +27591,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>238.7992910724536</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>172.25738095949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>291.8270912888456</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>76.41408375101629</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.4543446923755</v>
       </c>
       <c r="G8" t="n">
-        <v>185.1814529213698</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>37.86654093622704</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>235.1462264717921</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.419498242208011e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206137</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>150.7833302198388</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,10 +34457,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394704</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164546</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94570355317214</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,10 +38105,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
